--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_捷豹.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_捷豹.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11280" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>renterpc、renter、partner、partnerpc、payapi、bs、lts</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>王祥毅</t>
     <rPh sb="0" eb="1">
       <t>w'x'y</t>
@@ -334,6 +330,10 @@
   </si>
   <si>
     <t>OPT-664</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc、renter、renterembed、rentertp、partner、partnerpc、papp、payapi、bs、lts</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -353,6 +353,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -360,32 +361,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -393,12 +395,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -406,65 +410,68 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,6 +479,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,28 +487,31 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1426,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1527,7 +1538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="59" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="59" customFormat="1" ht="64" x14ac:dyDescent="0.15">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -1544,7 +1555,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>26</v>
@@ -1560,16 +1571,16 @@
       </c>
       <c r="K2" s="66"/>
       <c r="L2" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="66" t="s">
         <v>78</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>79</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="78" t="s">
         <v>28</v>
@@ -1581,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="S2" s="84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T2" s="84"/>
       <c r="U2" s="75"/>
@@ -1600,13 +1611,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>26</v>
@@ -1622,16 +1633,16 @@
       </c>
       <c r="K3" s="66"/>
       <c r="L3" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="66" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="78" t="s">
         <v>28</v>
@@ -1643,7 +1654,7 @@
         <v>29</v>
       </c>
       <c r="S3" s="84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T3" s="75"/>
       <c r="U3" s="75"/>
@@ -7316,7 +7327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
